--- a/src/backupgenerado.xlsx
+++ b/src/backupgenerado.xlsx
@@ -12,30 +12,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>LibroX</t>
+  </si>
+  <si>
+    <t>DescripciónX</t>
+  </si>
+  <si>
+    <t>AutorX</t>
+  </si>
+  <si>
+    <t>GeneroX</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>nombre1</t>
+  </si>
+  <si>
+    <t>descripcion1</t>
+  </si>
+  <si>
+    <t>autor1</t>
+  </si>
+  <si>
+    <t>genero1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>nombre2</t>
+  </si>
+  <si>
+    <t>descripcion2</t>
+  </si>
+  <si>
+    <t>autor2</t>
+  </si>
+  <si>
+    <t>genero2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>nombre3</t>
+  </si>
+  <si>
+    <t>descripcion3</t>
+  </si>
+  <si>
+    <t>autor3</t>
+  </si>
+  <si>
+    <t>genero3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LibroKKK</t>
+  </si>
+  <si>
+    <t>Descripciï¿½nZ</t>
+  </si>
+  <si>
+    <t>AutorZ</t>
+  </si>
+  <si>
+    <t>GeneroZ</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -80,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,19 +189,311 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/backupgenerado.xlsx
+++ b/src/backupgenerado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>1</t>
   </si>
@@ -135,6 +135,33 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>nombre11</t>
+  </si>
+  <si>
+    <t>descripcion11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>nombre21</t>
+  </si>
+  <si>
+    <t>descripcion21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>nombre31</t>
+  </si>
+  <si>
+    <t>descripcion31</t>
   </si>
 </sst>
 </file>
@@ -179,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -565,6 +592,66 @@
         <v>36</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/backupgenerado.xlsx
+++ b/src/backupgenerado.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" r:id="rId3" sheetId="1"/>
+    <sheet name="Libros" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
   <si>
     <t>1</t>
   </si>
@@ -162,6 +162,84 @@
   </si>
   <si>
     <t>descripcion31</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>nombre12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>nombre22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>nombre32</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>nombre13</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>nombre23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>nombre33</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>accc</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ahjkhaaa</t>
   </si>
 </sst>
 </file>
@@ -206,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -652,6 +730,226 @@
         <v>36</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/backupgenerado.xlsx
+++ b/src/backupgenerado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="116">
   <si>
     <t>1</t>
   </si>
@@ -227,19 +227,139 @@
     <t>ccc</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>aaaa</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ahjkhaaa</t>
   </si>
   <si>
     <t>accc</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>ahjkhaaa</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>nombre333</t>
+  </si>
+  <si>
+    <t>descripcion32</t>
+  </si>
+  <si>
+    <t>autor4</t>
+  </si>
+  <si>
+    <t>genero4</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>nombre334</t>
+  </si>
+  <si>
+    <t>descripcion33</t>
+  </si>
+  <si>
+    <t>autor5</t>
+  </si>
+  <si>
+    <t>genero5</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>nombre335</t>
+  </si>
+  <si>
+    <t>descripcion34</t>
+  </si>
+  <si>
+    <t>autor6</t>
+  </si>
+  <si>
+    <t>genero6</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>nombre336</t>
+  </si>
+  <si>
+    <t>descripcion35</t>
+  </si>
+  <si>
+    <t>autor7</t>
+  </si>
+  <si>
+    <t>genero7</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>nombre337</t>
+  </si>
+  <si>
+    <t>descripcion36</t>
+  </si>
+  <si>
+    <t>autor8</t>
+  </si>
+  <si>
+    <t>genero8</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>nombre338</t>
+  </si>
+  <si>
+    <t>descripcion37</t>
+  </si>
+  <si>
+    <t>autor9</t>
+  </si>
+  <si>
+    <t>genero9</t>
   </si>
 </sst>
 </file>
@@ -284,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -935,7 +1055,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -947,6 +1067,346 @@
         <v>66</v>
       </c>
       <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" t="s">
         <v>5</v>
       </c>
     </row>
